--- a/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLf/Adressliste.xlsx
+++ b/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLf/Adressliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\DatenFiles\__In_Klassen_erarbeitet\2023_BZU_TI23BLf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516D448-6E4C-47C8-851B-094CBB53216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80E598-73C9-445A-A32E-2DFDC47A49A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF34D87D-5C83-4B43-BA3C-D6FE80BA9105}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Vorname</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Ort</t>
   </si>
   <si>
-    <t>eMail</t>
-  </si>
-  <si>
     <t>TelNr</t>
   </si>
   <si>
@@ -138,16 +135,37 @@
     <t>Passwort</t>
   </si>
   <si>
-    <t>kasjdkajd</t>
-  </si>
-  <si>
-    <t>Hallo</t>
-  </si>
-  <si>
     <t>PasswortLength</t>
   </si>
   <si>
-    <t>PWD</t>
+    <t>Min Passwort Länge:</t>
+  </si>
+  <si>
+    <t>kasjds</t>
+  </si>
+  <si>
+    <t>kasjdsfso</t>
+  </si>
+  <si>
+    <t>kasjdsfsafdfaasdadasdasd</t>
+  </si>
+  <si>
+    <t>eMail Privat</t>
+  </si>
+  <si>
+    <t>eMail Schule</t>
+  </si>
+  <si>
+    <t>Domain Lehrer</t>
+  </si>
+  <si>
+    <t>bzu.ch</t>
+  </si>
+  <si>
+    <t>Domain Lernender</t>
+  </si>
+  <si>
+    <t>Ist Lehrer</t>
   </si>
 </sst>
 </file>
@@ -171,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,17 +230,88 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -529,250 +624,309 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="11" width="14.81640625" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" customWidth="1"/>
-    <col min="14" max="14" width="15.90625" customWidth="1"/>
-    <col min="15" max="15" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="9" max="10" width="25" customWidth="1"/>
+    <col min="11" max="13" width="14.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.36328125" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1"/>
+    <col min="16" max="16" width="15.90625" customWidth="1"/>
+    <col min="17" max="17" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>8855</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="str">
+        <f>LOWER(IF(B2='Set-Up'!$A$3,_xlfn.CONCAT(D2,".",E2,"@",'Set-Up'!$G$2),_xlfn.CONCAT(D2,".",E2,"@",'Set-Up'!$G$3)))</f>
+        <v>walter.rothlin@bzu.ch</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3">
+        <f>LEN(L2)</f>
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="str">
+        <f>LOWER(_xlfn.CONCAT(D2,".",E2))</f>
+        <v>walter.rothlin</v>
+      </c>
+      <c r="O2" s="3" t="str">
+        <f>LEFT(D2)</f>
+        <v>W</v>
+      </c>
+      <c r="P2" s="3" t="str">
+        <f>_xlfn.CONCAT(LEFT(D2),".",E2)</f>
+        <v>W.Rothlin</v>
+      </c>
+      <c r="Q2" s="3" t="str">
+        <f>_xlfn.CONCAT(IF(C2="Herr","Sehr geehrter ","Sehr geehrte "),C2," ",E2)</f>
+        <v>Sehr geehrter Herr Rothlin</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>8855</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f>LOWER(IF(B3='Set-Up'!$A$3,_xlfn.CONCAT(D3,".",E3,"@",'Set-Up'!$G$2),_xlfn.CONCAT(D3,".",E3,"@",'Set-Up'!$G$3)))</f>
+        <v>claudia.collet@bzu.ch</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M4" si="0">LEN(L3)</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f t="shared" ref="N3:N4" si="1">LOWER(_xlfn.CONCAT(D3,".",E3))</f>
+        <v>claudia.collet</v>
+      </c>
+      <c r="O3" s="3" t="str">
+        <f t="shared" ref="O3:O4" si="2">LEFT(D3)</f>
+        <v>C</v>
+      </c>
+      <c r="P3" s="3" t="str">
+        <f t="shared" ref="P3:P4" si="3">_xlfn.CONCAT(LEFT(D3),".",E3)</f>
+        <v>C.Collet</v>
+      </c>
+      <c r="Q3" s="3" t="str">
+        <f t="shared" ref="Q3:Q4" si="4">_xlfn.CONCAT(IF(C3="Herr","Sehr geehrter ","Sehr geehrte "),C3," ",E3)</f>
+        <v>Sehr geehrte Frau Collet</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>8854</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="str">
+        <f>LOWER(IF(B4='Set-Up'!$A$3,_xlfn.CONCAT(D4,".",E4,"@",'Set-Up'!$G$2),_xlfn.CONCAT(D4,".",E4,"@",'Set-Up'!$G$3)))</f>
+        <v>max.meier@stud.bzu.ch</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="M4" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>8855</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="4">
-        <f>LEN(J2)</f>
-        <v>9</v>
-      </c>
-      <c r="L2" s="4" t="str">
-        <f>LOWER(_xlfn.CONCAT(C2,".",D2))</f>
-        <v>walter.rothlin</v>
-      </c>
-      <c r="M2" s="4" t="str">
-        <f>LEFT(C2)</f>
-        <v>W</v>
-      </c>
-      <c r="N2" s="4" t="str">
-        <f>_xlfn.CONCAT(LEFT(C2),".",D2)</f>
-        <v>W.Rothlin</v>
-      </c>
-      <c r="O2" s="4" t="str">
-        <f>_xlfn.CONCAT(IF(B2="Herr","Sehr geehrter ","Sehr geehrte "),B2," ",D2)</f>
-        <v>Sehr geehrter Herr Rothlin</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8855</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K4" si="0">LEN(J3)</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L4" si="1">LOWER(_xlfn.CONCAT(C3,".",D3))</f>
-        <v>claudia.collet</v>
-      </c>
-      <c r="M3" s="4" t="str">
-        <f t="shared" ref="M3:M4" si="2">LEFT(C3)</f>
-        <v>C</v>
-      </c>
-      <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N4" si="3">_xlfn.CONCAT(LEFT(C3),".",D3)</f>
-        <v>C.Collet</v>
-      </c>
-      <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O4" si="4">_xlfn.CONCAT(IF(B3="Herr","Sehr geehrter ","Sehr geehrte "),B3," ",D3)</f>
-        <v>Sehr geehrte Frau Collet</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8854</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="str">
+      <c r="N4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>max.meier</v>
       </c>
-      <c r="M4" s="4" t="str">
+      <c r="O4" s="3" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="P4" s="3" t="str">
         <f t="shared" si="3"/>
         <v>M.Meier</v>
       </c>
-      <c r="O4" s="4" t="str">
+      <c r="Q4" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Sehr geehrter Herr Meier</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{C169E93C-8950-4B82-A9F2-337063F4391C}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{33BE5DE7-19BC-4969-8F51-559B7C29CDA8}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{85587D54-A736-4490-ABC3-7A86C717DCAB}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C169E93C-8950-4B82-A9F2-337063F4391C}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{33BE5DE7-19BC-4969-8F51-559B7C29CDA8}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{85587D54-A736-4490-ABC3-7A86C717DCAB}"/>
+    <hyperlink ref="J2" r:id="rId4" display="walter.rothlin@stud.bzu.ch" xr:uid="{C866584B-6677-4314-AA43-4EDD8935405B}"/>
+    <hyperlink ref="J3:J4" r:id="rId5" display="walter.rothlin@stud.bzu.ch" xr:uid="{46CA08A0-B3E6-4F5D-BE3F-E468DCFFAFCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{F29F0D47-EC61-4A9F-8663-B4FCDF1B5425}">
+            <xm:f>M2&lt;'Set-Up'!$G$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{603ECB27-AD15-42C0-978A-3F4DB72F0A99}">
+            <xm:f>M2&gt;='Set-Up'!$G$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="4.9989318521683403E-2"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L2:L4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{881A81B5-14DA-4743-B805-723614B659B6}">
           <x14:formula1>
             <xm:f>'Set-Up'!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A4</xm:sqref>
+          <xm:sqref>A2:B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3795427-BAE0-42E8-9D0F-5926E1FE28D0}">
           <x14:formula1>
             <xm:f>'Set-Up'!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B4</xm:sqref>
+          <xm:sqref>C2:C4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -782,33 +936,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B35251-C877-45FE-83C4-0B0AFAD690E7}">
-  <dimension ref="A3:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>_xlfn.CONCAT("stud.",G2)</f>
+        <v>stud.bzu.ch</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLf/Adressliste.xlsx
+++ b/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLf/Adressliste.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\DatenFiles\__In_Klassen_erarbeitet\2023_BZU_TI23BLf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80E598-73C9-445A-A32E-2DFDC47A49A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EA38EC-2C93-4B87-B985-BB0E1FF42A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF34D87D-5C83-4B43-BA3C-D6FE80BA9105}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{FF34D87D-5C83-4B43-BA3C-D6FE80BA9105}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnverein-Adressen" sheetId="1" r:id="rId1"/>
     <sheet name="Set-Up" sheetId="4" r:id="rId2"/>
+    <sheet name="Messwerte" sheetId="5" r:id="rId3"/>
+    <sheet name="Quadratische Funktion" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>Vorname</t>
   </si>
@@ -166,13 +168,117 @@
   </si>
   <si>
     <t>Ist Lehrer</t>
+  </si>
+  <si>
+    <t>eMail</t>
+  </si>
+  <si>
+    <t>Messwerte</t>
+  </si>
+  <si>
+    <t>Spannung</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>[Volt]</t>
+  </si>
+  <si>
+    <t>[V]</t>
+  </si>
+  <si>
+    <t>Stromstärke</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>[Ampere]</t>
+  </si>
+  <si>
+    <t>[A]</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Lineare Funktion</t>
+  </si>
+  <si>
+    <t>y = a*x + b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Steigung</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>y-Achsenabschnitt</t>
+  </si>
+  <si>
+    <t>Berechnet</t>
+  </si>
+  <si>
+    <t>I = f(U)=2*U+0</t>
+  </si>
+  <si>
+    <t>Leitwert</t>
+  </si>
+  <si>
+    <t>Widerstand</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>[Ohm]</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω]</t>
+    </r>
+  </si>
+  <si>
+    <t>I = U/R</t>
+  </si>
+  <si>
+    <t>U = R  * I</t>
+  </si>
+  <si>
+    <t>y = a*x^2 + b*x + c</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Referenz:</t>
+  </si>
+  <si>
+    <t>Inc:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +290,40 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,19 +368,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -261,56 +408,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -322,6 +419,2241 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Messwerte</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messwerte!$H$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messwerte!$H$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DADE-46A0-B5E2-2C6A7FFCEFE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messwerte!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Berechnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messwerte!$H$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messwerte!$H$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DADE-46A0-B5E2-2C6A7FFCEFE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="58616848"/>
+        <c:axId val="1132810080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="58616848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1132810080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1132810080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58616848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quadratische Funktion'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = a*x^2 + b*x + c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Quadratische Funktion'!$E$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Quadratische Funktion'!$E$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACCE-47BE-B9FA-80D43A60B361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quadratische Funktion'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Referenz:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Quadratische Funktion'!$E$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Quadratische Funktion'!$E$10:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACCE-47BE-B9FA-80D43A60B361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="101896576"/>
+        <c:axId val="107871024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="101896576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107871024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107871024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101896576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1936B298-010D-9257-D0F3-578167B99270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D4B4E0-1EFA-58BF-C7C8-B2DCE4112D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,10 +2956,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,15 +2967,16 @@
     <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" customWidth="1"/>
     <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="9" max="10" width="25" customWidth="1"/>
-    <col min="11" max="13" width="14.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.36328125" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1"/>
-    <col min="16" max="16" width="15.90625" customWidth="1"/>
-    <col min="17" max="17" width="23.36328125" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
+    <col min="10" max="11" width="25" customWidth="1"/>
+    <col min="12" max="14" width="14.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="16" max="16" width="12.90625" customWidth="1"/>
+    <col min="17" max="17" width="15.90625" customWidth="1"/>
+    <col min="18" max="18" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -669,34 +3002,37 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -721,41 +3057,41 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="K2" s="5" t="str">
         <f>LOWER(IF(B2='Set-Up'!$A$3,_xlfn.CONCAT(D2,".",E2,"@",'Set-Up'!$G$2),_xlfn.CONCAT(D2,".",E2,"@",'Set-Up'!$G$3)))</f>
         <v>walter.rothlin@bzu.ch</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3">
-        <f>LEN(L2)</f>
+      <c r="N2" s="3">
+        <f>LEN(M2)</f>
         <v>24</v>
       </c>
-      <c r="N2" s="3" t="str">
+      <c r="O2" s="3" t="str">
         <f>LOWER(_xlfn.CONCAT(D2,".",E2))</f>
         <v>walter.rothlin</v>
       </c>
-      <c r="O2" s="3" t="str">
+      <c r="P2" s="3" t="str">
         <f>LEFT(D2)</f>
         <v>W</v>
       </c>
-      <c r="P2" s="3" t="str">
+      <c r="Q2" s="3" t="str">
         <f>_xlfn.CONCAT(LEFT(D2),".",E2)</f>
         <v>W.Rothlin</v>
       </c>
-      <c r="Q2" s="3" t="str">
+      <c r="R2" s="3" t="str">
         <f>_xlfn.CONCAT(IF(C2="Herr","Sehr geehrter ","Sehr geehrte "),C2," ",E2)</f>
         <v>Sehr geehrter Herr Rothlin</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -780,41 +3116,41 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="K3" s="5" t="str">
         <f>LOWER(IF(B3='Set-Up'!$A$3,_xlfn.CONCAT(D3,".",E3,"@",'Set-Up'!$G$2),_xlfn.CONCAT(D3,".",E3,"@",'Set-Up'!$G$3)))</f>
         <v>claudia.collet@bzu.ch</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M4" si="0">LEN(L3)</f>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N4" si="0">LEN(M3)</f>
         <v>6</v>
       </c>
-      <c r="N3" s="3" t="str">
-        <f t="shared" ref="N3:N4" si="1">LOWER(_xlfn.CONCAT(D3,".",E3))</f>
+      <c r="O3" s="3" t="str">
+        <f t="shared" ref="O3:O4" si="1">LOWER(_xlfn.CONCAT(D3,".",E3))</f>
         <v>claudia.collet</v>
       </c>
-      <c r="O3" s="3" t="str">
-        <f t="shared" ref="O3:O4" si="2">LEFT(D3)</f>
+      <c r="P3" s="3" t="str">
+        <f t="shared" ref="P3:P4" si="2">LEFT(D3)</f>
         <v>C</v>
       </c>
-      <c r="P3" s="3" t="str">
-        <f t="shared" ref="P3:P4" si="3">_xlfn.CONCAT(LEFT(D3),".",E3)</f>
+      <c r="Q3" s="3" t="str">
+        <f t="shared" ref="Q3:Q4" si="3">_xlfn.CONCAT(LEFT(D3),".",E3)</f>
         <v>C.Collet</v>
       </c>
-      <c r="Q3" s="3" t="str">
-        <f t="shared" ref="Q3:Q4" si="4">_xlfn.CONCAT(IF(C3="Herr","Sehr geehrter ","Sehr geehrte "),C3," ",E3)</f>
+      <c r="R3" s="3" t="str">
+        <f t="shared" ref="R3:R4" si="4">_xlfn.CONCAT(IF(C3="Herr","Sehr geehrter ","Sehr geehrte "),C3," ",E3)</f>
         <v>Sehr geehrte Frau Collet</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -836,47 +3172,47 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="K4" s="5" t="str">
         <f>LOWER(IF(B4='Set-Up'!$A$3,_xlfn.CONCAT(D4,".",E4,"@",'Set-Up'!$G$2),_xlfn.CONCAT(D4,".",E4,"@",'Set-Up'!$G$3)))</f>
         <v>max.meier@stud.bzu.ch</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N4" s="3" t="str">
+      <c r="O4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>max.meier</v>
       </c>
-      <c r="O4" s="3" t="str">
+      <c r="P4" s="3" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="P4" s="3" t="str">
+      <c r="Q4" s="3" t="str">
         <f t="shared" si="3"/>
         <v>M.Meier</v>
       </c>
-      <c r="Q4" s="3" t="str">
+      <c r="R4" s="3" t="str">
         <f t="shared" si="4"/>
         <v>Sehr geehrter Herr Meier</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{C169E93C-8950-4B82-A9F2-337063F4391C}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{33BE5DE7-19BC-4969-8F51-559B7C29CDA8}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{85587D54-A736-4490-ABC3-7A86C717DCAB}"/>
-    <hyperlink ref="J2" r:id="rId4" display="walter.rothlin@stud.bzu.ch" xr:uid="{C866584B-6677-4314-AA43-4EDD8935405B}"/>
-    <hyperlink ref="J3:J4" r:id="rId5" display="walter.rothlin@stud.bzu.ch" xr:uid="{46CA08A0-B3E6-4F5D-BE3F-E468DCFFAFCB}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{C169E93C-8950-4B82-A9F2-337063F4391C}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{33BE5DE7-19BC-4969-8F51-559B7C29CDA8}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{85587D54-A736-4490-ABC3-7A86C717DCAB}"/>
+    <hyperlink ref="K2" r:id="rId4" display="walter.rothlin@stud.bzu.ch" xr:uid="{C866584B-6677-4314-AA43-4EDD8935405B}"/>
+    <hyperlink ref="K3:K4" r:id="rId5" display="walter.rothlin@stud.bzu.ch" xr:uid="{46CA08A0-B3E6-4F5D-BE3F-E468DCFFAFCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -885,7 +3221,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{F29F0D47-EC61-4A9F-8663-B4FCDF1B5425}">
-            <xm:f>M2&lt;'Set-Up'!$G$1</xm:f>
+            <xm:f>N2&lt;'Set-Up'!$G$1</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0"/>
@@ -898,7 +3234,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="2" id="{603ECB27-AD15-42C0-978A-3F4DB72F0A99}">
-            <xm:f>M2&gt;='Set-Up'!$G$1</xm:f>
+            <xm:f>N2&gt;='Set-Up'!$G$1</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1" tint="4.9989318521683403E-2"/>
@@ -910,7 +3246,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L2:L4</xm:sqref>
+          <xm:sqref>M2:M4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -994,4 +3330,563 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97C9F3E-2D43-4A25-96E2-2FD304344D52}">
+  <dimension ref="C3:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="4.7265625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="18" width="8.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K5" s="8">
+        <v>6</v>
+      </c>
+      <c r="L5" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="M5" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="O5" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="P5" s="8">
+        <v>15.9</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="R5" s="8">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="D6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <f>$P$12*H4+$P$13</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" ref="I6:R6" si="0">$P$12*I4+$P$13</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="O12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P17" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D189636C-F393-47AD-86B7-86622091B55D}">
+  <dimension ref="B3:Y10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="6.7265625" customWidth="1"/>
+    <col min="5" max="25" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-10</v>
+      </c>
+      <c r="F8">
+        <f>E8+$F$6</f>
+        <v>-9</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:Y8" si="0">F8+$F$6</f>
+        <v>-8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <f>$C$4*E8*E8+$C$5*E8+$C$6</f>
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <f>$C$4*F8*F8+$C$5*F8+$C$6</f>
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="F9:Y9" si="1">$C$4*G8*G8+$C$5*G8+$C$6</f>
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>-28</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>-28</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <f>E8*E8+E8+1</f>
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:Y10" si="2">F8*F8+F8+1</f>
+        <v>73</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLf/Adressliste.xlsx
+++ b/DatenFiles/__In_Klassen_erarbeitet/2023_BZU_TI23BLf/Adressliste.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\DatenFiles\__In_Klassen_erarbeitet\2023_BZU_TI23BLf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EA38EC-2C93-4B87-B985-BB0E1FF42A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF2078-29E3-454D-BB85-D48C01F45734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{FF34D87D-5C83-4B43-BA3C-D6FE80BA9105}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{FF34D87D-5C83-4B43-BA3C-D6FE80BA9105}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnverein-Adressen" sheetId="1" r:id="rId1"/>
     <sheet name="Set-Up" sheetId="4" r:id="rId2"/>
     <sheet name="Messwerte" sheetId="5" r:id="rId3"/>
     <sheet name="Quadratische Funktion" sheetId="6" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="208">
   <si>
     <t>Vorname</t>
   </si>
@@ -273,12 +274,414 @@
   <si>
     <t>Inc:</t>
   </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>TEL_P</t>
+  </si>
+  <si>
+    <t>Hollenstein</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Buobental 3</t>
+  </si>
+  <si>
+    <t>Lachen</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>ruth.hollenstein@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 87 42</t>
+  </si>
+  <si>
+    <t>Ruedi</t>
+  </si>
+  <si>
+    <t>Churerestrasse 14</t>
+  </si>
+  <si>
+    <t>ruedi.hollenstein@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 07 60</t>
+  </si>
+  <si>
+    <t>Janser</t>
+  </si>
+  <si>
+    <t>Churerstrasse 101</t>
+  </si>
+  <si>
+    <t>ruedi.janser@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 280 30 22</t>
+  </si>
+  <si>
+    <t>Juengling</t>
+  </si>
+  <si>
+    <t>Churerstrasse 21</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ruedi.juengling@gmail.ch</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Rosmarie</t>
+  </si>
+  <si>
+    <t>Churerstrasse 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schramberg </t>
+  </si>
+  <si>
+    <t>rosmarie.king@gmail.ch</t>
+  </si>
+  <si>
+    <t>0049 74 22  52 597</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Churerstrasse 64</t>
+  </si>
+  <si>
+    <t>Pfaeffikon</t>
+  </si>
+  <si>
+    <t>roman.koch@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 420 20 53</t>
+  </si>
+  <si>
+    <t>Koller</t>
+  </si>
+  <si>
+    <t>Rolf</t>
+  </si>
+  <si>
+    <t>Dorfplatz 9</t>
+  </si>
+  <si>
+    <t>Siebnen</t>
+  </si>
+  <si>
+    <t>rolf.koller@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 440 39 56</t>
+  </si>
+  <si>
+    <t>Koepfli</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Dorfstrasse 40</t>
+  </si>
+  <si>
+    <t>Zuerich</t>
+  </si>
+  <si>
+    <t>roland.koepfli@gmail.ch</t>
+  </si>
+  <si>
+    <t>044 463 37 53</t>
+  </si>
+  <si>
+    <t>Krieg</t>
+  </si>
+  <si>
+    <t>Roes</t>
+  </si>
+  <si>
+    <t>Ebenau 4</t>
+  </si>
+  <si>
+    <t>roes.krieg@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 80 32</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Eichwisstrasse 31</t>
+  </si>
+  <si>
+    <t>rita.krieg@gmail.ch</t>
+  </si>
+  <si>
+    <t>Eisenburgstrasse 40</t>
+  </si>
+  <si>
+    <t>Krieger</t>
+  </si>
+  <si>
+    <t>Richi</t>
+  </si>
+  <si>
+    <t>Engelhofstrasse 19</t>
+  </si>
+  <si>
+    <t>richi.krieger@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 91 70</t>
+  </si>
+  <si>
+    <t>Kussberger</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Engelplatz 12</t>
+  </si>
+  <si>
+    <t>richard.kussberger@gmail.ch</t>
+  </si>
+  <si>
+    <t>0049  7422 3872</t>
+  </si>
+  <si>
+    <t>Kuettel</t>
+  </si>
+  <si>
+    <t>Riccardo</t>
+  </si>
+  <si>
+    <t>Etzelstrasse 1</t>
+  </si>
+  <si>
+    <t>Wollerau</t>
+  </si>
+  <si>
+    <t>riccardo.kuettel@gmail.ch</t>
+  </si>
+  <si>
+    <t>044 784 10 73</t>
+  </si>
+  <si>
+    <t>Laib</t>
+  </si>
+  <si>
+    <t>Ren�</t>
+  </si>
+  <si>
+    <t>Etzelstrasse 80</t>
+  </si>
+  <si>
+    <t>Nuolen</t>
+  </si>
+  <si>
+    <t>ren�.laib@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 440 32 92</t>
+  </si>
+  <si>
+    <t>Landolt</t>
+  </si>
+  <si>
+    <t>Freienbach</t>
+  </si>
+  <si>
+    <t>ren�.landolt@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 410 19 49</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>Reinhard</t>
+  </si>
+  <si>
+    <t>Eulenweg 24</t>
+  </si>
+  <si>
+    <t>reinhard.lang@gmail.ch</t>
+  </si>
+  <si>
+    <t>Laeubli</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Feldmoostrasse 5</t>
+  </si>
+  <si>
+    <t>raphael.laeubli@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 410 31 38</t>
+  </si>
+  <si>
+    <t>Lurati</t>
+  </si>
+  <si>
+    <t>Ramona</t>
+  </si>
+  <si>
+    <t>Feldstrasse 11</t>
+  </si>
+  <si>
+    <t>Hombrechtikon</t>
+  </si>
+  <si>
+    <t>ramona.lurati@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 534 09 67</t>
+  </si>
+  <si>
+    <t>Maechler</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>ramon.maechler@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 17 58</t>
+  </si>
+  <si>
+    <t>Pius</t>
+  </si>
+  <si>
+    <t>Feldstrasse 16</t>
+  </si>
+  <si>
+    <t>pius.maechler@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 440 23 74</t>
+  </si>
+  <si>
+    <t>Maechler-Diethelm</t>
+  </si>
+  <si>
+    <t>Pirmin</t>
+  </si>
+  <si>
+    <t>Buttikon</t>
+  </si>
+  <si>
+    <t>pirmin.maechler-diethelm@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 440 33 70</t>
+  </si>
+  <si>
+    <t>Maeder</t>
+  </si>
+  <si>
+    <t>Pia</t>
+  </si>
+  <si>
+    <t>Feldstrasse 17c</t>
+  </si>
+  <si>
+    <t>pia.maeder@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 410 21 40</t>
+  </si>
+  <si>
+    <t>Mannhart</t>
+  </si>
+  <si>
+    <t>Feldstrasse 19</t>
+  </si>
+  <si>
+    <t>Maennedorf</t>
+  </si>
+  <si>
+    <t>pia.mannhart@gmail.ch</t>
+  </si>
+  <si>
+    <t>044 790 22 00</t>
+  </si>
+  <si>
+    <t>Felsenstrasse 20</t>
+  </si>
+  <si>
+    <t>Gestorben Marty</t>
+  </si>
+  <si>
+    <t>Philippe</t>
+  </si>
+  <si>
+    <t>Fluelastrasse 31a</t>
+  </si>
+  <si>
+    <t>philippe.gestorben marty@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 16 29</t>
+  </si>
+  <si>
+    <t>Marty</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Foehnloch 5</t>
+  </si>
+  <si>
+    <t>Altendorf</t>
+  </si>
+  <si>
+    <t>peter.marty@gmail.ch</t>
+  </si>
+  <si>
+    <t>055 442 30 14</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +731,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -368,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -382,6 +790,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2962,7 +3373,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="7.81640625" customWidth="1"/>
@@ -2976,7 +3387,7 @@
     <col min="18" max="18" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3032,7 +3443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3091,7 +3502,7 @@
         <v>Sehr geehrter Herr Rothlin</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3150,7 +3561,7 @@
         <v>Sehr geehrte Frau Collet</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3278,12 +3689,12 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="F1" t="s">
         <v>33</v>
       </c>
@@ -3291,7 +3702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="F2" t="s">
         <v>39</v>
       </c>
@@ -3299,7 +3710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3314,7 +3725,7 @@
         <v>stud.bzu.ch</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -3322,7 +3733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -3340,19 +3751,19 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="5" max="5" width="4.7265625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="18" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:19">
       <c r="C3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:19">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -3402,7 +3813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:19">
       <c r="C5" t="s">
         <v>54</v>
       </c>
@@ -3452,7 +3863,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:19">
       <c r="D6" s="9" t="s">
         <v>61</v>
       </c>
@@ -3504,12 +3915,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:19">
       <c r="D8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="3:19" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:19" ht="18.5">
       <c r="O9" t="s">
         <v>55</v>
       </c>
@@ -3517,12 +3928,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:19">
       <c r="D11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:19">
       <c r="O12" s="7" t="s">
         <v>57</v>
       </c>
@@ -3536,7 +3947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:19">
       <c r="D13" t="s">
         <v>69</v>
       </c>
@@ -3550,7 +3961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="16:20">
       <c r="P17" t="s">
         <v>64</v>
       </c>
@@ -3574,22 +3985,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D189636C-F393-47AD-86B7-86622091B55D}">
   <dimension ref="B3:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="6.7265625" customWidth="1"/>
     <col min="5" max="25" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:25" ht="23.5">
       <c r="B3" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:25">
       <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
@@ -3597,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25">
       <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
@@ -3605,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:25">
       <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
@@ -3619,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:25">
       <c r="D8" t="s">
         <v>53</v>
       </c>
@@ -3707,7 +4118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:25">
       <c r="D9" t="s">
         <v>54</v>
       </c>
@@ -3720,7 +4131,7 @@
         <v>42</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="F9:Y9" si="1">$C$4*G8*G8+$C$5*G8+$C$6</f>
+        <f t="shared" ref="G9:Y9" si="1">$C$4*G8*G8+$C$5*G8+$C$6</f>
         <v>26</v>
       </c>
       <c r="H9">
@@ -3796,7 +4207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:25">
       <c r="D10" t="s">
         <v>72</v>
       </c>
@@ -3889,4 +4300,915 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DE3947-F13A-49F6-A4E2-74E2CF4272E0}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="11">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>8853</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3">
+        <v>8853</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>8853</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>53175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <v>78713</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7">
+        <v>8808</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8">
+        <v>8854</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9">
+        <v>8045</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10">
+        <v>8853</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11">
+        <v>8853</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12">
+        <v>8853</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13">
+        <v>8853</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14">
+        <v>78713</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15">
+        <v>8832</v>
+      </c>
+      <c r="G15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16">
+        <v>8855</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17">
+        <v>8807</v>
+      </c>
+      <c r="G17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18">
+        <v>8853</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19">
+        <v>8808</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="11">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20">
+        <v>8634</v>
+      </c>
+      <c r="G20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="11">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21">
+        <v>8853</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="11">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22">
+        <v>8854</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="11">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23">
+        <v>8863</v>
+      </c>
+      <c r="G23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="11">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24">
+        <v>8807</v>
+      </c>
+      <c r="G24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="11">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25">
+        <v>8708</v>
+      </c>
+      <c r="G25" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="11">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26">
+        <v>8708</v>
+      </c>
+      <c r="G26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="11">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27">
+        <v>8853</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="11">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28">
+        <v>8852</v>
+      </c>
+      <c r="G28" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>